--- a/Civilworks cost/Expenditure_2018_19/Check/Exp from Server.xlsx
+++ b/Civilworks cost/Expenditure_2018_19/Check/Exp from Server.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Livilihood" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>conveyance</t>
   </si>
@@ -283,6 +284,24 @@
   </si>
   <si>
     <t>Exp_in_Lakh</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Exp_Gob_PD</t>
+  </si>
+  <si>
+    <t>Exp_RPA_PD</t>
+  </si>
+  <si>
+    <t>Exp_Total_PD</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>Total Including Bags</t>
   </si>
 </sst>
 </file>
@@ -322,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -386,6 +411,24 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,18 +713,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
@@ -3490,4 +3533,450 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="14" max="14" width="16.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>3231201</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2184000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>16018000</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>18202000</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1454199</v>
+      </c>
+      <c r="H2" s="6">
+        <v>12976327</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>14430526</v>
+      </c>
+      <c r="K2" s="10">
+        <f>G2/10^5</f>
+        <v>14.54199</v>
+      </c>
+      <c r="L2" s="10">
+        <f t="shared" ref="L2:N2" si="0">H2/10^5</f>
+        <v>129.76327000000001</v>
+      </c>
+      <c r="M2" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <f t="shared" si="0"/>
+        <v>144.30526</v>
+      </c>
+      <c r="O2" s="10">
+        <v>15.74</v>
+      </c>
+      <c r="P2" s="10">
+        <v>160.13</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10">
+        <v>175.87</v>
+      </c>
+      <c r="T2">
+        <f>R2-N2</f>
+        <v>31.56474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>3231201</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7726000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>56657000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>64383000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5116375</v>
+      </c>
+      <c r="H3" s="6">
+        <v>52617352</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>57733727</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" ref="K3:K4" si="1">G3/10^5</f>
+        <v>51.16375</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3:L4" si="2">H3/10^5</f>
+        <v>526.17352000000005</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M4" si="3">I3/10^5</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N4" si="4">J3/10^5</f>
+        <v>577.33726999999999</v>
+      </c>
+      <c r="O3" s="10">
+        <v>55.7</v>
+      </c>
+      <c r="P3" s="10">
+        <v>566.54999999999995</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10">
+        <v>622.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3231201</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2908000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>21325000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>24233000</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1796147</v>
+      </c>
+      <c r="H4" s="6">
+        <v>18631355</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>20427502</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" si="1"/>
+        <v>17.961469999999998</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" si="2"/>
+        <v>186.31354999999999</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" si="4"/>
+        <v>204.27502000000001</v>
+      </c>
+      <c r="O4" s="10">
+        <v>20.97</v>
+      </c>
+      <c r="P4" s="10">
+        <v>213.24</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10">
+        <v>234.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10">
+        <f t="shared" ref="K5:M5" si="5">SUM(K2:K4)</f>
+        <v>83.667210000000011</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="5"/>
+        <v>842.25034000000005</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <f>SUM(N2:N4)</f>
+        <v>925.91755000000001</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" ref="O5:Q5" si="6">SUM(O2:O4)</f>
+        <v>92.41</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="6"/>
+        <v>939.92</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <f>SUM(R2:R4)</f>
+        <v>1032.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
+        <v>873792</v>
+      </c>
+      <c r="H6" s="11">
+        <v>9767158</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>10640950</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" ref="K6" si="7">G6/10^5</f>
+        <v>8.7379200000000008</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" ref="L6" si="8">H6/10^5</f>
+        <v>97.671580000000006</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" ref="M6" si="9">I6/10^5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" ref="N6" si="10">J6/10^5</f>
+        <v>106.40949999999999</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11">
+        <f>K5+K6</f>
+        <v>92.405130000000014</v>
+      </c>
+      <c r="L7" s="11">
+        <f>L5+L6</f>
+        <v>939.92192</v>
+      </c>
+      <c r="M7" s="12">
+        <f>M5+M6</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <f>N5+N6</f>
+        <v>1032.3270500000001</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="13">
+        <f>O2-K2</f>
+        <v>1.19801</v>
+      </c>
+      <c r="P9" s="13">
+        <f>P2-L2</f>
+        <v>30.36672999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="O10" s="13">
+        <f>O9*10^5</f>
+        <v>119801</v>
+      </c>
+      <c r="P10" s="13">
+        <f>P9*10^5</f>
+        <v>3036672.9999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="O11" s="13">
+        <f>O3-K3</f>
+        <v>4.5362500000000026</v>
+      </c>
+      <c r="P11" s="13">
+        <f>P3-L3</f>
+        <v>40.376479999999901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O12" s="13">
+        <f>O11*10^5</f>
+        <v>453625.00000000023</v>
+      </c>
+      <c r="P12" s="13">
+        <f>P11*10^5</f>
+        <v>4037647.9999999902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O13" s="13">
+        <f>O4-K4</f>
+        <v>3.0085300000000004</v>
+      </c>
+      <c r="P13" s="13">
+        <f>P4-L4</f>
+        <v>26.926450000000017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O14" s="13">
+        <f>O13*10^5</f>
+        <v>300853.00000000006</v>
+      </c>
+      <c r="P14" s="13">
+        <f>P13*10^5</f>
+        <v>2692645.0000000019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>